--- a/sample/Signals_ver1.xlsx
+++ b/sample/Signals_ver1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f465ed088dabd7d/home/projects/diff-tools/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_AD4D066CA252ABDACC1048ED9955C5AE72EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1663E605-B774-4E45-AABA-4A3C67107E45}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_AD4D066CA252ABDACC1048ED9955C5AE72EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BC108F4-09FF-4068-8F63-3907406E8FDE}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="14760" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15330" yWindow="6975" windowWidth="14760" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Iris</t>
   </si>
   <si>
-    <t>Jack</t>
-  </si>
-  <si>
     <t>Loves hiking</t>
   </si>
   <si>
@@ -103,6 +100,22 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>addres</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHN</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -165,16 +178,21 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E8C528E-D3D0-4BA8-A037-4C486F9C541A}" name="テーブル1" displayName="テーブル1" ref="B2:G12" totalsRowShown="0">
-  <autoFilter ref="B2:G12" xr:uid="{4E8C528E-D3D0-4BA8-A037-4C486F9C541A}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E8C528E-D3D0-4BA8-A037-4C486F9C541A}" name="テーブル1" displayName="テーブル1" ref="B2:H12" totalsRowShown="0">
+  <autoFilter ref="B2:H12" xr:uid="{4E8C528E-D3D0-4BA8-A037-4C486F9C541A}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{6B36A8D9-0921-4BD5-A329-18AAF11B4476}" name="id"/>
     <tableColumn id="2" xr3:uid="{5FD41B15-BC80-493B-ADBC-5B7B4BA3D58D}" name="Name"/>
     <tableColumn id="3" xr3:uid="{DF64B2A4-D5A7-4EDF-9DD1-3E300C179AA9}" name="description"/>
     <tableColumn id="4" xr3:uid="{308A1970-A581-40A9-B59A-3A27F32D3A87}" name="value"/>
     <tableColumn id="5" xr3:uid="{9A4A32E9-6C2D-48F7-9D7B-171542F2FF82}" name="min"/>
     <tableColumn id="6" xr3:uid="{77123DE7-29C0-4932-9727-3ED61136007A}" name="max"/>
+    <tableColumn id="7" xr3:uid="{12AC7E5F-45E0-4581-84A0-1C7D50800E2B}" name="addres"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -443,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -459,12 +477,12 @@
     <col min="7" max="7" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:8">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -478,8 +496,11 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:7">
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3">
         <v>1</v>
       </c>
@@ -487,7 +508,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>25</v>
@@ -498,8 +519,11 @@
       <c r="G3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4">
         <v>2</v>
       </c>
@@ -507,7 +531,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -518,16 +542,19 @@
       <c r="G4">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -538,8 +565,11 @@
       <c r="G5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6">
         <v>4</v>
       </c>
@@ -547,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -558,8 +588,11 @@
       <c r="G6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7">
         <v>5</v>
       </c>
@@ -567,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>35</v>
@@ -578,8 +611,11 @@
       <c r="G7">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8">
         <v>6</v>
       </c>
@@ -587,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>70</v>
@@ -598,8 +634,11 @@
       <c r="G8">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9">
         <v>7</v>
       </c>
@@ -607,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>45</v>
@@ -618,8 +657,11 @@
       <c r="G9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10">
         <v>8</v>
       </c>
@@ -627,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>55</v>
@@ -638,8 +680,11 @@
       <c r="G10">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11">
         <v>9</v>
       </c>
@@ -647,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -658,16 +703,19 @@
       <c r="G11">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>65</v>
@@ -677,6 +725,9 @@
       </c>
       <c r="G12">
         <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
